--- a/Project Roadmap.xlsx
+++ b/Project Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/databootcamp/Desktop/Project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3361F56-CA43-C24C-AD39-D16F4B011E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A720C230-7E6D-744D-814E-56E685CBFBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2460" windowWidth="26440" windowHeight="14160" xr2:uid="{04B3BF33-3D00-4340-B930-5904C63FC363}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
